--- a/pythonCode/CH3/vmstat/vmstat_merge_header.xlsx
+++ b/pythonCode/CH3/vmstat/vmstat_merge_header.xlsx
@@ -14,7 +14,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+  <si>
+    <t>n2022-02-18</t>
+  </si>
+  <si>
+    <t>03:13:16</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>swpd</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>359440</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>233652</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>03:13:17</t>
+  </si>
+  <si>
+    <t>359192</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>03:13:18</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>03:13:19</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>03:13:20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>n'</t>
+  </si>
   <si>
     <t>datetime</t>
   </si>
@@ -377,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,38 +511,397 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
